--- a/data/trans_dic/P11_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,06; 18,7</t>
+          <t>11,86; 18,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 16,06</t>
+          <t>9,21; 15,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,77; 18,02</t>
+          <t>11,35; 18,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,62; 24,77</t>
+          <t>18,13; 24,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,9; 27,5</t>
+          <t>17,77; 27,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,41; 21,39</t>
+          <t>12,61; 21,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 22,39</t>
+          <t>13,73; 22,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,33; 30,94</t>
+          <t>24,02; 31,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,42; 20,76</t>
+          <t>15,17; 20,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,37; 16,77</t>
+          <t>11,71; 17,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 18,97</t>
+          <t>13,35; 18,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,64; 26,68</t>
+          <t>21,66; 26,76</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 15,67</t>
+          <t>8,79; 15,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,26; 20,32</t>
+          <t>12,65; 20,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,0</t>
+          <t>9,02; 16,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,35; 27,4</t>
+          <t>19,34; 26,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 22,91</t>
+          <t>14,5; 22,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 23,73</t>
+          <t>14,86; 23,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,48; 23,93</t>
+          <t>15,22; 23,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,08; 32,32</t>
+          <t>24,75; 32,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 17,62</t>
+          <t>12,84; 18,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,21; 20,51</t>
+          <t>14,59; 20,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,07; 18,4</t>
+          <t>13,14; 18,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,95; 28,43</t>
+          <t>22,84; 28,29</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,43; 21,95</t>
+          <t>15,15; 21,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,84; 27,43</t>
+          <t>19,86; 27,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,99; 24,27</t>
+          <t>16,72; 24,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 32,6</t>
+          <t>7,76; 32,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,65; 36,99</t>
+          <t>22,47; 37,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,56; 38,25</t>
+          <t>26,22; 38,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,61; 36,72</t>
+          <t>21,43; 35,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,91; 51,94</t>
+          <t>39,77; 52,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,18; 24,07</t>
+          <t>17,99; 24,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,67; 28,86</t>
+          <t>22,64; 28,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,79; 25,67</t>
+          <t>19,25; 25,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,53; 36,36</t>
+          <t>10,32; 36,47</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,52; 25,12</t>
+          <t>20,45; 25,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,72; 24,79</t>
+          <t>19,77; 24,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,55; 24,58</t>
+          <t>19,25; 24,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 33,84</t>
+          <t>28,16; 33,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,37; 29,78</t>
+          <t>23,08; 29,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,71; 27,91</t>
+          <t>21,99; 28,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 27,45</t>
+          <t>21,69; 27,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,27; 72,46</t>
+          <t>34,15; 73,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,35; 26,28</t>
+          <t>22,33; 26,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,44; 25,29</t>
+          <t>21,32; 25,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,28; 25,18</t>
+          <t>21,35; 25,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,12; 58,91</t>
+          <t>31,9; 56,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,07; 27,23</t>
+          <t>17,52; 26,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,43; 23,42</t>
+          <t>16,43; 23,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,72; 27,41</t>
+          <t>20,53; 27,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,37; 37,78</t>
+          <t>28,74; 37,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,09; 32,73</t>
+          <t>25,02; 32,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,67; 42,83</t>
+          <t>35,2; 42,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,45; 39,43</t>
+          <t>32,01; 39,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,72; 47,9</t>
+          <t>30,78; 47,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,12; 29,25</t>
+          <t>23,11; 29,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,77; 33,9</t>
+          <t>28,83; 34,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,8; 32,79</t>
+          <t>27,81; 32,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,73; 42,57</t>
+          <t>31,48; 42,24</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,53</t>
+          <t>4,46; 10,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,04</t>
+          <t>4,26; 11,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,06</t>
+          <t>3,06; 8,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,62; 20,04</t>
+          <t>5,89; 19,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,47; 38,55</t>
+          <t>33,08; 38,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,11; 41,36</t>
+          <t>34,94; 40,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,45; 36,59</t>
+          <t>30,72; 36,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,4; 43,44</t>
+          <t>37,48; 44,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,13; 32,57</t>
+          <t>28,14; 32,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,55; 34,69</t>
+          <t>29,41; 34,58</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,24; 30,17</t>
+          <t>24,8; 30,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,55; 36,5</t>
+          <t>30,51; 36,57</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,89; 19,54</t>
+          <t>16,99; 19,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,56; 20,36</t>
+          <t>17,37; 20,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,15; 20,01</t>
+          <t>17,25; 19,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,44; 27,48</t>
+          <t>19,22; 27,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,71; 30,84</t>
+          <t>27,73; 30,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,66; 32,81</t>
+          <t>29,65; 32,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,11; 30,32</t>
+          <t>27,08; 30,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,96; 51,44</t>
+          <t>36,23; 52,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,76; 24,77</t>
+          <t>22,7; 24,88</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24,19; 26,33</t>
+          <t>24,04; 26,26</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22,67; 24,81</t>
+          <t>22,71; 24,88</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>29,63; 39,68</t>
+          <t>29,61; 39,19</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>71336</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>53346</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>60966</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>106847</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>68223</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>51546</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>61061</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>122427</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>139559</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>104893</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>122027</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>229274</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>56169; 88692</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>40017; 68621</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48156; 77698</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>91325; 124608</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>54506; 83781</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>39643; 66071</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47268; 76062</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>107158; 138939</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>118390; 159919</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>87659; 129905</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>102595; 145587</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>205799; 254228</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>43390</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68253</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45898</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>104162</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>68119</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>63497</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>71375</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>109674</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>111509</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>131750</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>117273</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>213835</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>32268; 57229</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>52861; 85516</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33937; 60534</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>87301; 120755</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>53936; 82919</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>50080; 80732</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>56370; 87726</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>94530; 124765</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>94895; 134736</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>110109; 156357</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>98077; 140607</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>190338; 235813</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>99127</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>144962</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>105759</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>131308</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>50038</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>82927</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>47190</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>76654</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>149165</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>227889</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>152949</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>207962</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>82178; 118359</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>124179; 171680</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>86660; 126238</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51780; 214866</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>37706; 62103</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67940; 100788</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35141; 58814</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>66384; 87758</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>127786; 172690</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>200276; 255046</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>131322; 176856</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>86125; 304228</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>282956</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>256868</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>251309</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>319246</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>188738</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>190848</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>202057</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>476451</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>471694</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>447716</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>453366</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>795697</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>253245; 313496</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>228329; 286192</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>219735; 278681</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>291384; 350237</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>164845; 210686</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>168392; 219784</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>177863; 228049</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>333972; 718239</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>435980; 508813</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>409465; 489101</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>418843; 495475</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>642086; 1142032</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>77624</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>100636</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>146559</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>157695</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>161981</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>297993</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>264506</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>351811</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>239605</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>398629</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>411066</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>509505</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>61412; 93056</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>83353; 120566</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>126769; 169088</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>136518; 177807</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>142329; 186277</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>267705; 326943</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>235363; 289979</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>258826; 401799</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>212436; 266931</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>365541; 432070</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>376189; 442963</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>414259; 555801</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>20352</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19362</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14833</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>25914</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>448534</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>420635</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>361984</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>308612</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>468885</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>439997</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>376817</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>334526</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13309; 30409</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11302; 30829</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8682; 24338</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>14167; 46432</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>413067; 482107</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>387627; 453724</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>330297; 395302</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>284771; 334328</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>435294; 506592</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>404224; 475281</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>336946; 408847</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>305192; 365826</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1613</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1503</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3288</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>594784</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>643427</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>625326</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>845172</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>985633</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1107446</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1008173</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1445629</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1580417</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1750873</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1633499</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2290801</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>555562; 645566</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>591475; 691674</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>579636; 670721</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>648153; 933385</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>936804; 1039619</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1051414; 1161993</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>950118; 1061366</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1294954; 1868919</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1509474; 1653787</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1671036; 1825052</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1559901; 1709370</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2056758; 2722785</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P11_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
